--- a/excel_templates/AScan/T_报表生成.xlsx
+++ b/excel_templates/AScan/T_报表生成.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898813DC-061F-4CE1-8798-14090F495CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68BD739-EEBE-44D8-ACED-C5DCD5407FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1186,28 +1186,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1216,8 +1281,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1523,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1545,19 +1652,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="23.1" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1576,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1597,12 +1704,12 @@
         <v>4</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1663,7 +1770,7 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1675,7 +1782,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1714,13 +1821,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="4"/>
@@ -1739,13 +1846,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="4"/>
@@ -1764,13 +1871,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="4"/>
@@ -1784,10 +1891,10 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1819,7 +1926,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1854,7 +1961,7 @@
     </row>
     <row r="15" spans="1:11" ht="23.1" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1870,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="5" t="s">
         <v>74</v>
       </c>
       <c r="K15" s="4"/>
@@ -2155,15 +2262,281 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A19:K35"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
+  <mergeCells count="62">
+    <mergeCell ref="A36:K53"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="B12:B14"/>
@@ -2180,44 +2553,13 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A19:K35"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/AScan/T_报表生成.xlsx
+++ b/excel_templates/AScan/T_报表生成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68BD739-EEBE-44D8-ACED-C5DCD5407FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B458BB-DA98-481B-A34B-6AC26A5019B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,327 +778,327 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>水平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>} mm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垂直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>} mm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>探伤结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>探伤标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${探伤人员}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负责人员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>声速</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>} m/s</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水平</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>} mm</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>垂直</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>} mm</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>探伤结果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>探伤标准</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${探伤人员}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>负责人员</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备注</t>
     </r>
     <r>
       <rPr>
@@ -1281,24 +1281,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,7 +1293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1325,6 +1307,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1652,175 +1652,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1830,22 +1830,22 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1855,22 +1855,22 @@
       <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1880,624 +1880,670 @@
       <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="4"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="4"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="D14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="4"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="D15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="4"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="D16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="4"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="D17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="4"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="D18" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="18"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A19:K35"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A36:K53"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:C2"/>
@@ -2514,52 +2560,6 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A19:K35"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/AScan/T_报表生成.xlsx
+++ b/excel_templates/AScan/T_报表生成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B458BB-DA98-481B-A34B-6AC26A5019B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A171EF-9D7E-424B-882F-90FF675A7B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1186,91 +1186,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1281,40 +1201,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1323,9 +1213,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1632,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1652,175 +1546,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1830,22 +1724,22 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1855,22 +1749,22 @@
       <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1880,631 +1774,662 @@
       <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="18" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16" t="s">
+      <c r="I17" s="4"/>
+      <c r="J17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A19:K35"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
+  <mergeCells count="61">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="B12:B14"/>
@@ -2521,45 +2446,13 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A36:K53"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A19:K35"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/AScan/T_报表生成.xlsx
+++ b/excel_templates/AScan/T_报表生成.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A171EF-9D7E-424B-882F-90FF675A7B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E514C5-9812-4F79-913F-C3B0A170D2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1198,13 +1198,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,13 +1213,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1524,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1535,69 +1531,69 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1606,116 +1602,116 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="23.1" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1724,22 +1720,22 @@
       <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1749,22 +1745,22 @@
       <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1774,15 +1770,15 @@
       <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1">
       <c r="A12" s="7" t="s">
@@ -1797,64 +1793,64 @@
       <c r="D12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
@@ -1864,572 +1860,307 @@
       <c r="D15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="23.1" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A19:K35"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H17:I18"/>
+    <mergeCell ref="J17:K18"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="B12:B14"/>
@@ -2446,13 +2177,44 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A19:K35"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/AScan/T_报表生成.xlsx
+++ b/excel_templates/AScan/T_报表生成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\AScan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E514C5-9812-4F79-913F-C3B0A170D2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34700AD-8DB2-46DD-8A07-3A1DD993F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>南通友联数字式超声波探伤仪探伤报告</t>
   </si>
@@ -1109,6 +1109,10 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$&lt;"name":"AScan", "width": 740, "height": 339&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1522,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1932,7 +1936,9 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
